--- a/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/11022026.xlsx
+++ b/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/11022026.xlsx
@@ -1,117 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Evangelio y Oraciones" state="visible" r:id="rId4"/>
+    <sheet name="Evangelio y Oraciones" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames/>
+  <calcPr calcId="171027" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
-  <si>
-    <t>NOMBRES</t>
-  </si>
-  <si>
-    <t>APELLIDO_PATERNO</t>
-  </si>
-  <si>
-    <t>APELLIDO_MATERNO</t>
-  </si>
-  <si>
-    <t>CELULAR</t>
-  </si>
-  <si>
-    <t>MAIL</t>
-  </si>
-  <si>
-    <t>CORREO</t>
-  </si>
-  <si>
-    <t>SMS</t>
-  </si>
-  <si>
-    <t>WHATSAPP</t>
-  </si>
-  <si>
-    <t>TEXTO_MENSAJE</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>56994148421</t>
-  </si>
-  <si>
-    <t>lucesalejandro3@gmail.com</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miércoles, 11 de febrero de 2026
-*Evangelio del Día*
-Lectura del santo evangelio según san Marcos
-Marcos 7, 14-23 En aquel tiempo, Jesús llamó de nuevo a la gente y les dijo: "Escúchenme todos y entiéndanme. Nada que entre de fuera puede manchar al hombre; lo que sí lo mancha es lo que sale de dentro". Cuando entró en una casa para alejarse de la muchedumbre, los discípulos le preguntaron qué quería decir aquella parábola. Él les dijo: "¿Ustedes también son incapaces de comprender? ¿No entienden que nada de lo que entra en el hombre desde afuera puede contaminarlo, porque no entra en su corazón, sino en el vientre y después, sale del cuerpo?" Con estas palabras declaraba limpios todos los alimentos. Luego agregó: "Lo que sí mancha al hombre es lo que sale de dentro; porque del corazón del hombre salen las intenciones malas, las fornicaciones, los robos, los homicidios, los adulterios, las codicias, las injusticias, los fraudes, el desenfreno, las envidias, la difamación, el orgullo y la frivolidad. Todas estas maldades salen de dentro y manchan al hombre".
-*Oración de la mañana*
-Querido Jesús, Tú que nos enseñaste que lo que mancha al hombre no es lo que entra de fuera, sino lo que sale de dentro, te pido que me ayudes a mantener puro mi corazón. Que mis pensamientos, palabras y acciones sean siempre reflejo de tu amor y bondad, y no de malas intenciones o maldades que puedan manchar mi alma.
-Gracias, Padre Celestial, por este nuevo día que me concedes. Te agradezco por la oportunidad de aprender y comprender tus enseñanzas, y te pido que me des la fortaleza para resistir las tentaciones de la envidia, el orgullo y la frivolidad. Que pueda vivir este día en justicia y amor, buscando siempre tu gloria y no la mía.
-Espíritu Santo, te pido que me guíes en mi camino. Llena mi corazón de tu luz, para que pueda discernir correctamente entre lo que es bueno y lo que es malo. Que mi alma se mantenga limpia y mi espíritu sea siempre un reflejo de tu bondad y santidad.
-Todo esto te lo pido en tu nombre, Amén.</t>
-  </si>
-  <si>
-    <t>Omar</t>
-  </si>
-  <si>
-    <t>56973223070</t>
-  </si>
-  <si>
-    <t>Mama</t>
-  </si>
-  <si>
-    <t>56971748545</t>
-  </si>
-  <si>
-    <t>Victor</t>
-  </si>
-  <si>
-    <t>56931123918</t>
-  </si>
-  <si>
-    <t>Yume</t>
-  </si>
-  <si>
-    <t>584146711206</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color theme="1"/>
-      <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -135,28 +51,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -481,193 +456,496 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0"/>
   <cols>
-    <col min="1" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="100" style="1" customWidth="1"/>
+    <col width="20" customWidth="1" min="1" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="8"/>
+    <col width="100" customWidth="1" style="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="1" s="2">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>NOMBRES</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>APELLIDO_PATERNO</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>APELLIDO_MATERNO</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>CELULAR</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>MAIL</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>CORREO</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>SMS</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>WHATSAPP</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>TEXTO_MENSAJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="150" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Alejandro</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56994148421</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>miércoles, 11 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 14-23 En aquel tiempo, Jesús llamó de nuevo a la gente y les dijo: "Escúchenme todos y entiéndanme. Nada que entre de fuera puede manchar al hombre; lo que sí lo mancha es lo que sale de dentro". Cuando entró en una casa para alejarse de la muchedumbre, los discípulos le preguntaron qué quería decir aquella parábola. Él les dijo: "¿Ustedes también son incapaces de comprender? ¿No entienden que nada de lo que entra en el hombre desde afuera puede contaminarlo, porque no entra en su corazón, sino en el vientre y después, sale del cuerpo?" Con estas palabras declaraba limpios todos los alimentos. Luego agregó: "Lo que sí mancha al hombre es lo que sale de dentro; porque del corazón del hombre salen las intenciones malas, las fornicaciones, los robos, los homicidios, los adulterios, las codicias, las injusticias, los fraudes, el desenfreno, las envidias, la difamación, el orgullo y la frivolidad. Todas estas maldades salen de dentro y manchan al hombre".
+*Oración de la mañana*
+Querido Jesús, Tú que nos enseñaste que lo que mancha al hombre no es lo que entra de fuera, sino lo que sale de dentro, te pido que me ayudes a mantener puro mi corazón. Que mis pensamientos, palabras y acciones sean siempre reflejo de tu amor y bondad, y no de malas intenciones o maldades que puedan manchar mi alma.
+Gracias, Padre Celestial, por este nuevo día que me concedes. Te agradezco por la oportunidad de aprender y comprender tus enseñanzas, y te pido que me des la fortaleza para resistir las tentaciones de la envidia, el orgullo y la frivolidad. Que pueda vivir este día en justicia y amor, buscando siempre tu gloria y no la mía.
+Espíritu Santo, te pido que me guíes en mi camino. Llena mi corazón de tu luz, para que pueda discernir correctamente entre lo que es bueno y lo que es malo. Que mi alma se mantenga limpia y mi espíritu sea siempre un reflejo de tu bondad y santidad.
+Todo esto te lo pido en tu nombre, Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="2" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
+    <row r="3" ht="150" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Omar</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56973223070</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>miércoles, 11 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 14-23 En aquel tiempo, Jesús llamó de nuevo a la gente y les dijo: "Escúchenme todos y entiéndanme. Nada que entre de fuera puede manchar al hombre; lo que sí lo mancha es lo que sale de dentro". Cuando entró en una casa para alejarse de la muchedumbre, los discípulos le preguntaron qué quería decir aquella parábola. Él les dijo: "¿Ustedes también son incapaces de comprender? ¿No entienden que nada de lo que entra en el hombre desde afuera puede contaminarlo, porque no entra en su corazón, sino en el vientre y después, sale del cuerpo?" Con estas palabras declaraba limpios todos los alimentos. Luego agregó: "Lo que sí mancha al hombre es lo que sale de dentro; porque del corazón del hombre salen las intenciones malas, las fornicaciones, los robos, los homicidios, los adulterios, las codicias, las injusticias, los fraudes, el desenfreno, las envidias, la difamación, el orgullo y la frivolidad. Todas estas maldades salen de dentro y manchan al hombre".
+*Oración de la mañana*
+Querido Jesús, Tú que nos enseñaste que lo que mancha al hombre no es lo que entra de fuera, sino lo que sale de dentro, te pido que me ayudes a mantener puro mi corazón. Que mis pensamientos, palabras y acciones sean siempre reflejo de tu amor y bondad, y no de malas intenciones o maldades que puedan manchar mi alma.
+Gracias, Padre Celestial, por este nuevo día que me concedes. Te agradezco por la oportunidad de aprender y comprender tus enseñanzas, y te pido que me des la fortaleza para resistir las tentaciones de la envidia, el orgullo y la frivolidad. Que pueda vivir este día en justicia y amor, buscando siempre tu gloria y no la mía.
+Espíritu Santo, te pido que me guíes en mi camino. Llena mi corazón de tu luz, para que pueda discernir correctamente entre lo que es bueno y lo que es malo. Que mi alma se mantenga limpia y mi espíritu sea siempre un reflejo de tu bondad y santidad.
+Todo esto te lo pido en tu nombre, Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="3" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
+    <row r="4" ht="150" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mama</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56971748545</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>miércoles, 11 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 14-23 En aquel tiempo, Jesús llamó de nuevo a la gente y les dijo: "Escúchenme todos y entiéndanme. Nada que entre de fuera puede manchar al hombre; lo que sí lo mancha es lo que sale de dentro". Cuando entró en una casa para alejarse de la muchedumbre, los discípulos le preguntaron qué quería decir aquella parábola. Él les dijo: "¿Ustedes también son incapaces de comprender? ¿No entienden que nada de lo que entra en el hombre desde afuera puede contaminarlo, porque no entra en su corazón, sino en el vientre y después, sale del cuerpo?" Con estas palabras declaraba limpios todos los alimentos. Luego agregó: "Lo que sí mancha al hombre es lo que sale de dentro; porque del corazón del hombre salen las intenciones malas, las fornicaciones, los robos, los homicidios, los adulterios, las codicias, las injusticias, los fraudes, el desenfreno, las envidias, la difamación, el orgullo y la frivolidad. Todas estas maldades salen de dentro y manchan al hombre".
+*Oración de la mañana*
+Querido Jesús, Tú que nos enseñaste que lo que mancha al hombre no es lo que entra de fuera, sino lo que sale de dentro, te pido que me ayudes a mantener puro mi corazón. Que mis pensamientos, palabras y acciones sean siempre reflejo de tu amor y bondad, y no de malas intenciones o maldades que puedan manchar mi alma.
+Gracias, Padre Celestial, por este nuevo día que me concedes. Te agradezco por la oportunidad de aprender y comprender tus enseñanzas, y te pido que me des la fortaleza para resistir las tentaciones de la envidia, el orgullo y la frivolidad. Que pueda vivir este día en justicia y amor, buscando siempre tu gloria y no la mía.
+Espíritu Santo, te pido que me guíes en mi camino. Llena mi corazón de tu luz, para que pueda discernir correctamente entre lo que es bueno y lo que es malo. Que mi alma se mantenga limpia y mi espíritu sea siempre un reflejo de tu bondad y santidad.
+Todo esto te lo pido en tu nombre, Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="4" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
+    <row r="5" ht="150" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56931123918</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>miércoles, 11 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 14-23 En aquel tiempo, Jesús llamó de nuevo a la gente y les dijo: "Escúchenme todos y entiéndanme. Nada que entre de fuera puede manchar al hombre; lo que sí lo mancha es lo que sale de dentro". Cuando entró en una casa para alejarse de la muchedumbre, los discípulos le preguntaron qué quería decir aquella parábola. Él les dijo: "¿Ustedes también son incapaces de comprender? ¿No entienden que nada de lo que entra en el hombre desde afuera puede contaminarlo, porque no entra en su corazón, sino en el vientre y después, sale del cuerpo?" Con estas palabras declaraba limpios todos los alimentos. Luego agregó: "Lo que sí mancha al hombre es lo que sale de dentro; porque del corazón del hombre salen las intenciones malas, las fornicaciones, los robos, los homicidios, los adulterios, las codicias, las injusticias, los fraudes, el desenfreno, las envidias, la difamación, el orgullo y la frivolidad. Todas estas maldades salen de dentro y manchan al hombre".
+*Oración de la mañana*
+Querido Jesús, Tú que nos enseñaste que lo que mancha al hombre no es lo que entra de fuera, sino lo que sale de dentro, te pido que me ayudes a mantener puro mi corazón. Que mis pensamientos, palabras y acciones sean siempre reflejo de tu amor y bondad, y no de malas intenciones o maldades que puedan manchar mi alma.
+Gracias, Padre Celestial, por este nuevo día que me concedes. Te agradezco por la oportunidad de aprender y comprender tus enseñanzas, y te pido que me des la fortaleza para resistir las tentaciones de la envidia, el orgullo y la frivolidad. Que pueda vivir este día en justicia y amor, buscando siempre tu gloria y no la mía.
+Espíritu Santo, te pido que me guíes en mi camino. Llena mi corazón de tu luz, para que pueda discernir correctamente entre lo que es bueno y lo que es malo. Que mi alma se mantenga limpia y mi espíritu sea siempre un reflejo de tu bondad y santidad.
+Todo esto te lo pido en tu nombre, Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="5" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
+    <row r="6" ht="150" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Yume</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>584146711206</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>15</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>miércoles, 11 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 14-23 En aquel tiempo, Jesús llamó de nuevo a la gente y les dijo: "Escúchenme todos y entiéndanme. Nada que entre de fuera puede manchar al hombre; lo que sí lo mancha es lo que sale de dentro". Cuando entró en una casa para alejarse de la muchedumbre, los discípulos le preguntaron qué quería decir aquella parábola. Él les dijo: "¿Ustedes también son incapaces de comprender? ¿No entienden que nada de lo que entra en el hombre desde afuera puede contaminarlo, porque no entra en su corazón, sino en el vientre y después, sale del cuerpo?" Con estas palabras declaraba limpios todos los alimentos. Luego agregó: "Lo que sí mancha al hombre es lo que sale de dentro; porque del corazón del hombre salen las intenciones malas, las fornicaciones, los robos, los homicidios, los adulterios, las codicias, las injusticias, los fraudes, el desenfreno, las envidias, la difamación, el orgullo y la frivolidad. Todas estas maldades salen de dentro y manchan al hombre".
+*Oración de la mañana*
+Querido Jesús, Tú que nos enseñaste que lo que mancha al hombre no es lo que entra de fuera, sino lo que sale de dentro, te pido que me ayudes a mantener puro mi corazón. Que mis pensamientos, palabras y acciones sean siempre reflejo de tu amor y bondad, y no de malas intenciones o maldades que puedan manchar mi alma.
+Gracias, Padre Celestial, por este nuevo día que me concedes. Te agradezco por la oportunidad de aprender y comprender tus enseñanzas, y te pido que me des la fortaleza para resistir las tentaciones de la envidia, el orgullo y la frivolidad. Que pueda vivir este día en justicia y amor, buscando siempre tu gloria y no la mía.
+Espíritu Santo, te pido que me guíes en mi camino. Llena mi corazón de tu luz, para que pueda discernir correctamente entre lo que es bueno y lo que es malo. Que mi alma se mantenga limpia y mi espíritu sea siempre un reflejo de tu bondad y santidad.
+Todo esto te lo pido en tu nombre, Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="6" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mariangely</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56972028078</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>mariangelygonzalez14@gmail.com</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>miércoles, 11 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 14-23 En aquel tiempo, Jesús llamó de nuevo a la gente y les dijo: "Escúchenme todos y entiéndanme. Nada que entre de fuera puede manchar al hombre; lo que sí lo mancha es lo que sale de dentro". Cuando entró en una casa para alejarse de la muchedumbre, los discípulos le preguntaron qué quería decir aquella parábola. Él les dijo: "¿Ustedes también son incapaces de comprender? ¿No entienden que nada de lo que entra en el hombre desde afuera puede contaminarlo, porque no entra en su corazón, sino en el vientre y después, sale del cuerpo?" Con estas palabras declaraba limpios todos los alimentos. Luego agregó: "Lo que sí mancha al hombre es lo que sale de dentro; porque del corazón del hombre salen las intenciones malas, las fornicaciones, los robos, los homicidios, los adulterios, las codicias, las injusticias, los fraudes, el desenfreno, las envidias, la difamación, el orgullo y la frivolidad. Todas estas maldades salen de dentro y manchan al hombre".
+*Oración de la mañana*
+Querido Jesús, Tú que nos enseñaste que lo que mancha al hombre no es lo que entra de fuera, sino lo que sale de dentro, te pido que me ayudes a mantener puro mi corazón. Que mis pensamientos, palabras y acciones sean siempre reflejo de tu amor y bondad, y no de malas intenciones o maldades que puedan manchar mi alma.
+Gracias, Padre Celestial, por este nuevo día que me concedes. Te agradezco por la oportunidad de aprender y comprender tus enseñanzas, y te pido que me des la fortaleza para resistir las tentaciones de la envidia, el orgullo y la frivolidad. Que pueda vivir este día en justicia y amor, buscando siempre tu gloria y no la mía.
+Espíritu Santo, te pido que me guíes en mi camino. Llena mi corazón de tu luz, para que pueda discernir correctamente entre lo que es bueno y lo que es malo. Que mi alma se mantenga limpia y mi espíritu sea siempre un reflejo de tu bondad y santidad.
+Todo esto te lo pido en tu nombre, Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ALEJANDRO MANUEL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LUCES</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34672527995</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>alejandroluces5515@gmail.com</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>miércoles, 11 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 14-23 En aquel tiempo, Jesús llamó de nuevo a la gente y les dijo: "Escúchenme todos y entiéndanme. Nada que entre de fuera puede manchar al hombre; lo que sí lo mancha es lo que sale de dentro". Cuando entró en una casa para alejarse de la muchedumbre, los discípulos le preguntaron qué quería decir aquella parábola. Él les dijo: "¿Ustedes también son incapaces de comprender? ¿No entienden que nada de lo que entra en el hombre desde afuera puede contaminarlo, porque no entra en su corazón, sino en el vientre y después, sale del cuerpo?" Con estas palabras declaraba limpios todos los alimentos. Luego agregó: "Lo que sí mancha al hombre es lo que sale de dentro; porque del corazón del hombre salen las intenciones malas, las fornicaciones, los robos, los homicidios, los adulterios, las codicias, las injusticias, los fraudes, el desenfreno, las envidias, la difamación, el orgullo y la frivolidad. Todas estas maldades salen de dentro y manchan al hombre".
+*Oración de la mañana*
+Querido Jesús, Tú que nos enseñaste que lo que mancha al hombre no es lo que entra de fuera, sino lo que sale de dentro, te pido que me ayudes a mantener puro mi corazón. Que mis pensamientos, palabras y acciones sean siempre reflejo de tu amor y bondad, y no de malas intenciones o maldades que puedan manchar mi alma.
+Gracias, Padre Celestial, por este nuevo día que me concedes. Te agradezco por la oportunidad de aprender y comprender tus enseñanzas, y te pido que me des la fortaleza para resistir las tentaciones de la envidia, el orgullo y la frivolidad. Que pueda vivir este día en justicia y amor, buscando siempre tu gloria y no la mía.
+Espíritu Santo, te pido que me guíes en mi camino. Llena mi corazón de tu luz, para que pueda discernir correctamente entre lo que es bueno y lo que es malo. Que mi alma se mantenga limpia y mi espíritu sea siempre un reflejo de tu bondad y santidad.
+Todo esto te lo pido en tu nombre, Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Marianny</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gonzalez</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>56967970252</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>marikaro2508@gmail.com</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>miércoles, 11 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 14-23 En aquel tiempo, Jesús llamó de nuevo a la gente y les dijo: "Escúchenme todos y entiéndanme. Nada que entre de fuera puede manchar al hombre; lo que sí lo mancha es lo que sale de dentro". Cuando entró en una casa para alejarse de la muchedumbre, los discípulos le preguntaron qué quería decir aquella parábola. Él les dijo: "¿Ustedes también son incapaces de comprender? ¿No entienden que nada de lo que entra en el hombre desde afuera puede contaminarlo, porque no entra en su corazón, sino en el vientre y después, sale del cuerpo?" Con estas palabras declaraba limpios todos los alimentos. Luego agregó: "Lo que sí mancha al hombre es lo que sale de dentro; porque del corazón del hombre salen las intenciones malas, las fornicaciones, los robos, los homicidios, los adulterios, las codicias, las injusticias, los fraudes, el desenfreno, las envidias, la difamación, el orgullo y la frivolidad. Todas estas maldades salen de dentro y manchan al hombre".
+*Oración de la mañana*
+Querido Jesús, Tú que nos enseñaste que lo que mancha al hombre no es lo que entra de fuera, sino lo que sale de dentro, te pido que me ayudes a mantener puro mi corazón. Que mis pensamientos, palabras y acciones sean siempre reflejo de tu amor y bondad, y no de malas intenciones o maldades que puedan manchar mi alma.
+Gracias, Padre Celestial, por este nuevo día que me concedes. Te agradezco por la oportunidad de aprender y comprender tus enseñanzas, y te pido que me des la fortaleza para resistir las tentaciones de la envidia, el orgullo y la frivolidad. Que pueda vivir este día en justicia y amor, buscando siempre tu gloria y no la mía.
+Espíritu Santo, te pido que me guíes en mi camino. Llena mi corazón de tu luz, para que pueda discernir correctamente entre lo que es bueno y lo que es malo. Que mi alma se mantenga limpia y mi espíritu sea siempre un reflejo de tu bondad y santidad.
+Todo esto te lo pido en tu nombre, Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Milagros</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>56936637515</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Milagrosghurtado@gmail.com</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>miércoles, 11 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 14-23 En aquel tiempo, Jesús llamó de nuevo a la gente y les dijo: "Escúchenme todos y entiéndanme. Nada que entre de fuera puede manchar al hombre; lo que sí lo mancha es lo que sale de dentro". Cuando entró en una casa para alejarse de la muchedumbre, los discípulos le preguntaron qué quería decir aquella parábola. Él les dijo: "¿Ustedes también son incapaces de comprender? ¿No entienden que nada de lo que entra en el hombre desde afuera puede contaminarlo, porque no entra en su corazón, sino en el vientre y después, sale del cuerpo?" Con estas palabras declaraba limpios todos los alimentos. Luego agregó: "Lo que sí mancha al hombre es lo que sale de dentro; porque del corazón del hombre salen las intenciones malas, las fornicaciones, los robos, los homicidios, los adulterios, las codicias, las injusticias, los fraudes, el desenfreno, las envidias, la difamación, el orgullo y la frivolidad. Todas estas maldades salen de dentro y manchan al hombre".
+*Oración de la mañana*
+Querido Jesús, Tú que nos enseñaste que lo que mancha al hombre no es lo que entra de fuera, sino lo que sale de dentro, te pido que me ayudes a mantener puro mi corazón. Que mis pensamientos, palabras y acciones sean siempre reflejo de tu amor y bondad, y no de malas intenciones o maldades que puedan manchar mi alma.
+Gracias, Padre Celestial, por este nuevo día que me concedes. Te agradezco por la oportunidad de aprender y comprender tus enseñanzas, y te pido que me des la fortaleza para resistir las tentaciones de la envidia, el orgullo y la frivolidad. Que pueda vivir este día en justicia y amor, buscando siempre tu gloria y no la mía.
+Espíritu Santo, te pido que me guíes en mi camino. Llena mi corazón de tu luz, para que pueda discernir correctamente entre lo que es bueno y lo que es malo. Que mi alma se mantenga limpia y mi espíritu sea siempre un reflejo de tu bondad y santidad.
+Todo esto te lo pido en tu nombre, Amén.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>